--- a/LP-MSPM0G3507引脚功能表.xlsx
+++ b/LP-MSPM0G3507引脚功能表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xe-131\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xe-131\workspace_ccstheia\empty_LP_MSPM0G3507_nortos_ticlang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B19E89-09E7-4CF5-AFDF-8F1150D715D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CA50CD-4D46-4575-AD0F-67F59D88C819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7536" yWindow="4812" windowWidth="34560" windowHeight="18600" xr2:uid="{D16F5E0B-72B9-4545-A7E3-0BE61CDAF987}"/>
   </bookViews>
@@ -925,14 +925,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB5F9889-D278-4694-867D-44893E008DCF}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="36.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>

--- a/LP-MSPM0G3507引脚功能表.xlsx
+++ b/LP-MSPM0G3507引脚功能表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xe-131\workspace_ccstheia\empty_LP_MSPM0G3507_nortos_ticlang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CA50CD-4D46-4575-AD0F-67F59D88C819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0D9B5F-4973-4CD5-AAFD-3CDD6387AB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7536" yWindow="4812" windowWidth="34560" windowHeight="18600" xr2:uid="{D16F5E0B-72B9-4545-A7E3-0BE61CDAF987}"/>
+    <workbookView xWindow="22944" yWindow="0" windowWidth="23232" windowHeight="26016" xr2:uid="{D16F5E0B-72B9-4545-A7E3-0BE61CDAF987}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="122">
   <si>
     <t>PA0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,397 +68,404 @@
     <t>PA9</t>
   </si>
   <si>
+    <t>PA12</t>
+  </si>
+  <si>
+    <t>PA13</t>
+  </si>
+  <si>
+    <t>PA14</t>
+  </si>
+  <si>
+    <t>PA15</t>
+  </si>
+  <si>
+    <t>PA16</t>
+  </si>
+  <si>
+    <t>PA17</t>
+  </si>
+  <si>
+    <t>PA18</t>
+  </si>
+  <si>
+    <t>PA19</t>
+  </si>
+  <si>
+    <t>PA20</t>
+  </si>
+  <si>
+    <t>PA21</t>
+  </si>
+  <si>
+    <t>PA22</t>
+  </si>
+  <si>
+    <t>PA23</t>
+  </si>
+  <si>
+    <t>PA24</t>
+  </si>
+  <si>
+    <t>PA25</t>
+  </si>
+  <si>
+    <t>PA26</t>
+  </si>
+  <si>
+    <t>PA27</t>
+  </si>
+  <si>
+    <t>PA28</t>
+  </si>
+  <si>
+    <t>PA29</t>
+  </si>
+  <si>
+    <t>PA30</t>
+  </si>
+  <si>
+    <t>PA31</t>
+  </si>
+  <si>
+    <t>引脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB2</t>
+  </si>
+  <si>
+    <t>PB3</t>
+  </si>
+  <si>
+    <t>PB4</t>
+  </si>
+  <si>
+    <t>PB5</t>
+  </si>
+  <si>
+    <t>PB6</t>
+  </si>
+  <si>
+    <t>PB7</t>
+  </si>
+  <si>
+    <t>PB8</t>
+  </si>
+  <si>
+    <t>PB9</t>
+  </si>
+  <si>
+    <t>PB10</t>
+  </si>
+  <si>
+    <t>PB11</t>
+  </si>
+  <si>
+    <t>PB12</t>
+  </si>
+  <si>
+    <t>PB13</t>
+  </si>
+  <si>
+    <t>PB14</t>
+  </si>
+  <si>
+    <t>PB15</t>
+  </si>
+  <si>
+    <t>PB16</t>
+  </si>
+  <si>
+    <t>PB17</t>
+  </si>
+  <si>
+    <t>PB18</t>
+  </si>
+  <si>
+    <t>PB19</t>
+  </si>
+  <si>
+    <t>PB20</t>
+  </si>
+  <si>
+    <t>PB21</t>
+  </si>
+  <si>
+    <t>PB22</t>
+  </si>
+  <si>
+    <t>PB23</t>
+  </si>
+  <si>
+    <t>PB24</t>
+  </si>
+  <si>
+    <t>PB25</t>
+  </si>
+  <si>
+    <t>PB26</t>
+  </si>
+  <si>
+    <t>PB27</t>
+  </si>
+  <si>
+    <t>LaunchPad功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5V Open-Drain引脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关跳线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROSC引脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可以使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LFXIN引脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LFXOUT引脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HFXIN引脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HFXOUT引脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J19设置上拉 / J4连接至LED1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">J20设置上拉 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引出位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoosterPack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下方未焊接区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J14选择SW1引脚PB23/PA9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XDS UART TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J21设置引出至XDS/BoosterPack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XDS UART RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J22设置引出至XDS/BoosterPack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J15选择SW2引脚PA16/PA18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1按键/默认BSL引脚/SW2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J8连接至S1 / J15选择SW2引脚PA16/PA18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不建议使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XDS SWDIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XDS SWCLK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J101连接至XDS110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VREF-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J16连接至光线传感器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VREF+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J18连接至光线传感器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J17连接至光线传感器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QEI Interface</t>
+  </si>
+  <si>
+    <t>J12未焊接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QEI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RGB Blue LED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J5连接至LED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度传感器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光线传感器</t>
+  </si>
+  <si>
+    <t>J9选择温度传感器连接至PA26/PB24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可焊接SMA接口连接至ADC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RGB Red LED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J6连接至LED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RGB Green LED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J7连接至LED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UART_PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIO_MOTOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM_MOTOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIO_SWICH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIO_ENCODER_LEFT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIO_ENCODER_LEFT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIO_ENCODER_RIGHT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIO_MPU6050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C_MPU6050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C_OLED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>PA10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PA11</t>
-  </si>
-  <si>
-    <t>PA12</t>
-  </si>
-  <si>
-    <t>PA13</t>
-  </si>
-  <si>
-    <t>PA14</t>
-  </si>
-  <si>
-    <t>PA15</t>
-  </si>
-  <si>
-    <t>PA16</t>
-  </si>
-  <si>
-    <t>PA17</t>
-  </si>
-  <si>
-    <t>PA18</t>
-  </si>
-  <si>
-    <t>PA19</t>
-  </si>
-  <si>
-    <t>PA20</t>
-  </si>
-  <si>
-    <t>PA21</t>
-  </si>
-  <si>
-    <t>PA22</t>
-  </si>
-  <si>
-    <t>PA23</t>
-  </si>
-  <si>
-    <t>PA24</t>
-  </si>
-  <si>
-    <t>PA25</t>
-  </si>
-  <si>
-    <t>PA26</t>
-  </si>
-  <si>
-    <t>PA27</t>
-  </si>
-  <si>
-    <t>PA28</t>
-  </si>
-  <si>
-    <t>PA29</t>
-  </si>
-  <si>
-    <t>PA30</t>
-  </si>
-  <si>
-    <t>PA31</t>
-  </si>
-  <si>
-    <t>引脚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PB0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PB1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PB2</t>
-  </si>
-  <si>
-    <t>PB3</t>
-  </si>
-  <si>
-    <t>PB4</t>
-  </si>
-  <si>
-    <t>PB5</t>
-  </si>
-  <si>
-    <t>PB6</t>
-  </si>
-  <si>
-    <t>PB7</t>
-  </si>
-  <si>
-    <t>PB8</t>
-  </si>
-  <si>
-    <t>PB9</t>
-  </si>
-  <si>
-    <t>PB10</t>
-  </si>
-  <si>
-    <t>PB11</t>
-  </si>
-  <si>
-    <t>PB12</t>
-  </si>
-  <si>
-    <t>PB13</t>
-  </si>
-  <si>
-    <t>PB14</t>
-  </si>
-  <si>
-    <t>PB15</t>
-  </si>
-  <si>
-    <t>PB16</t>
-  </si>
-  <si>
-    <t>PB17</t>
-  </si>
-  <si>
-    <t>PB18</t>
-  </si>
-  <si>
-    <t>PB19</t>
-  </si>
-  <si>
-    <t>PB20</t>
-  </si>
-  <si>
-    <t>PB21</t>
-  </si>
-  <si>
-    <t>PB22</t>
-  </si>
-  <si>
-    <t>PB23</t>
-  </si>
-  <si>
-    <t>PB24</t>
-  </si>
-  <si>
-    <t>PB25</t>
-  </si>
-  <si>
-    <t>PB26</t>
-  </si>
-  <si>
-    <t>PB27</t>
-  </si>
-  <si>
-    <t>LaunchPad功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5V Open-Drain引脚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相关跳线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROSC引脚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否可以使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>×</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LFXIN引脚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LFXOUT引脚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HFXIN引脚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HFXOUT引脚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J19设置上拉 / J4连接至LED1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">J20设置上拉 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引出位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoosterPack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下方未焊接区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SW1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J14选择SW1引脚PB23/PA9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XDS UART TX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J21设置引出至XDS/BoosterPack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XDS UART RX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J22设置引出至XDS/BoosterPack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SW2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J15选择SW2引脚PA16/PA18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S1按键/默认BSL引脚/SW2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J8连接至S1 / J15选择SW2引脚PA16/PA18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不建议使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XDS SWDIO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XDS SWCLK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J101连接至XDS110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VREF-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J16连接至光线传感器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VREF+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J18连接至光线传感器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J17连接至光线传感器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QEI Interface</t>
-  </si>
-  <si>
-    <t>J12未焊接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QEI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2按键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RGB Blue LED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J5连接至LED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温度传感器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光线传感器</t>
-  </si>
-  <si>
-    <t>J9选择温度传感器连接至PA26/PB24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可焊接SMA接口连接至ADC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RGB Red LED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J6连接至LED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RGB Green LED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J7连接至LED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UART_PC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPIO_MOTOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWM_MOTOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPIO_SWICH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPIO_ENCODER_LEFT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I2C_MPU6050</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I2C_MPU6050</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I2C_OLED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPIO_MPU6050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -523,7 +530,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -557,22 +564,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -591,22 +589,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -923,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB5F9889-D278-4694-867D-44893E008DCF}">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -939,1078 +928,1083 @@
     <col min="6" max="6" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="D12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="B14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="B15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="B16" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="E20" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="D21" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>117</v>
+        <v>74</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F33" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>114</v>
+        <v>74</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F36" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F37" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>113</v>
+        <v>74</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>113</v>
+        <v>74</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>113</v>
+        <v>74</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>114</v>
+        <v>74</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F49" t="s">
-        <v>120</v>
+        <v>74</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>113</v>
+        <v>74</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>116</v>
+        <v>74</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>115</v>
+        <v>75</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B58" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>105</v>
-      </c>
       <c r="D58" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
